--- a/python.xlsx
+++ b/python.xlsx
@@ -8,21 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/victormommalier/CNAM/ALGO/tp-algo-tri/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F997D19C-7D80-DE41-9BF3-5A5FDDAEC22D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BC50C08-E503-9D46-8E15-40BC7A8392E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{72EC535B-0103-E240-A27C-294F5268F6F2}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{72EC535B-0103-E240-A27C-294F5268F6F2}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Feuil1!$B$7</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Feuil1!$C$2:$C$6</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Feuil1!$C$7</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Feuil1!$B$7</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Feuil1!$C$2:$C$6</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Feuil1!$C$7</definedName>
-  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -42,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="12">
   <si>
     <t>n</t>
   </si>
@@ -50,37 +42,34 @@
     <t>temps</t>
   </si>
   <si>
-    <t>1 000 000</t>
+    <t>tir par selection</t>
   </si>
   <si>
-    <t>5 000 000</t>
+    <t>tri par insertion</t>
   </si>
   <si>
-    <t>10 000 000</t>
+    <t>10 000</t>
   </si>
   <si>
-    <t>20 000 000</t>
+    <t>20 000</t>
   </si>
   <si>
-    <t>40 000 000</t>
+    <t>50 000</t>
   </si>
   <si>
-    <t>Temps écoulé pour 1 000 entrées: 0.03290295600891113</t>
+    <t>tri par fusion</t>
   </si>
   <si>
-    <t>Temps écoulé pour 5 000 entrées: 0.7203621864318848</t>
+    <t>tri par sort()</t>
   </si>
   <si>
-    <t>Temps écoulé pour 10 000 entrées: 2.766948938369751</t>
+    <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Temps écoulé pour 20 000 entrées: 10.986744165420532</t>
+    <t>5 000</t>
   </si>
   <si>
-    <t>Temps écoulé pour 50 000 entrées: 70.5890679359436</t>
-  </si>
-  <si>
-    <t>tir par selection</t>
+    <t>1 000</t>
   </si>
 </sst>
 </file>
@@ -206,14 +195,50 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -246,14 +271,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="3.0103575072675817E-2"/>
-          <c:y val="0.44907407407407407"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Comparaison tri par insertion/selection</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -285,17 +327,7 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.21996322892401282"/>
-          <c:y val="0.17168999708369787"/>
-          <c:w val="0.75314190555031468"/>
-          <c:h val="0.72094889180519106"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -304,11 +336,621 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Feuil1!$C$2</c:f>
+              <c:f>Feuil1!$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>temps</c:v>
+                  <c:v>tri par insertion</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:marker>
+              <c:symbol val="none"/>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="28575" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:marker>
+              <c:symbol val="none"/>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="28575" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:marker>
+              <c:symbol val="none"/>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="28575" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:marker>
+              <c:symbol val="none"/>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="28575" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Feuil1!$B$4:$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1 000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5 000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10 000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20 000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50 000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$C$4:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3.78E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.86609999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.3008000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.0991</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>79.9405</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-245C-D245-A757-CA502B89E263}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil1!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>tir par selection</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Feuil1!$B$4:$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1 000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5 000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10 000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20 000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50 000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$F$4:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3.2899999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.72030000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.7669000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.986700000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70.589100000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-245C-D245-A757-CA502B89E263}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="115757680"/>
+        <c:axId val="153786720"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="115757680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="153786720"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="153786720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="115757680"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:dispUnits>
+          <c:builtInUnit val="hundreds"/>
+          <c:dispUnitsLbl>
+            <c:layout>
+              <c:manualLayout>
+                <c:xMode val="edge"/>
+                <c:yMode val="edge"/>
+                <c:x val="2.5551684088269456E-2"/>
+                <c:y val="0.46495599814729038"/>
+              </c:manualLayout>
+            </c:layout>
+            <c:tx>
+              <c:rich>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:r>
+                    <a:rPr lang="en-US"/>
+                    <a:t>Temps</a:t>
+                  </a:r>
+                </a:p>
+              </c:rich>
+            </c:tx>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </c:txPr>
+          </c:dispUnitsLbl>
+        </c:dispUnits>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Comparaison tri par fusion/sort()</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil1!$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>tri par fusion</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -327,47 +969,47 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Feuil1!$B$3:$B$7</c:f>
+              <c:f>Feuil1!$H$4:$H$8</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1 000 000</c:v>
+                  <c:v>1 000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5 000 000</c:v>
+                  <c:v>5 000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10 000 000</c:v>
+                  <c:v>10 000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20 000 000</c:v>
+                  <c:v>20 000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>40 000 000</c:v>
+                  <c:v>50 000</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$C$3:$C$7</c:f>
+              <c:f>Feuil1!$I$4:$I$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.96299999999999997</c:v>
+                  <c:v>2.8999999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.5750000000000002</c:v>
+                  <c:v>1.3899999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.1359999999999992</c:v>
+                  <c:v>3.2399999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18.311</c:v>
+                  <c:v>7.0099999999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>36.558999999999997</c:v>
+                  <c:v>0.14929999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -375,7 +1017,87 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1541-104A-A392-230B7155B1A2}"/>
+              <c16:uniqueId val="{00000000-4C82-EA4E-9F87-A08A20FFCFD0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil1!$K$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>tri par sort()</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Feuil1!$H$4:$H$8</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1 000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5 000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10 000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20 000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50 000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$L$4:$L$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.9999999999999995E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.4999999999999997E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4C82-EA4E-9F87-A08A20FFCFD0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -388,11 +1110,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="2067147151"/>
-        <c:axId val="2067148799"/>
+        <c:axId val="121944800"/>
+        <c:axId val="116541536"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2067147151"/>
+        <c:axId val="121944800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -435,7 +1157,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2067148799"/>
+        <c:crossAx val="116541536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -443,7 +1165,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2067148799"/>
+        <c:axId val="116541536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -494,7 +1216,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2067147151"/>
+        <c:crossAx val="121944800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -506,6 +1228,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -590,6 +1343,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -1106,27 +1899,543 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>641350</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>292100</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="11" name="Graphique 10">
+        <xdr:cNvPr id="4" name="Graphique 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC2A84B3-38B3-7345-9EEF-A4566D4D4240}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70C8CE4C-FC31-6E42-B6EF-40005FC9EF6D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1139,6 +2448,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>673100</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Graphique 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4699E640-4F81-7F4A-8671-34953DF21FA1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1444,80 +2789,252 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{479050F2-C9D0-194A-B4BF-D35838CE2899}">
-  <dimension ref="B1:E7"/>
+  <dimension ref="B2:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C7"/>
+      <selection activeCell="L38" sqref="L38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
-        <v>12</v>
+      <c r="D3" s="1"/>
+      <c r="E3" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1"/>
+      <c r="K3" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="4">
-        <v>0.96299999999999997</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="4">
+        <v>3.78E-2</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="4">
+        <v>3.2899999999999999E-2</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="4">
+        <v>2.8999999999999998E-3</v>
+      </c>
+      <c r="J4" s="1"/>
+      <c r="K4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="11">
+        <v>1E-4</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="4">
-        <v>4.5750000000000002</v>
-      </c>
-      <c r="E4" t="s">
-        <v>8</v>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.86609999999999998</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0.72030000000000005</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="4">
+        <v>1.3899999999999999E-2</v>
+      </c>
+      <c r="J5" s="1"/>
+      <c r="K5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="11">
+        <v>5.9999999999999995E-4</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B5" s="3" t="s">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="4">
-        <v>9.1359999999999992</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="C6" s="4">
+        <v>3.3008000000000002</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="4">
+        <v>2.7669000000000001</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="4">
+        <v>3.2399999999999998E-2</v>
+      </c>
+      <c r="J6" s="1"/>
+      <c r="K6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L6" s="12">
+        <v>1.1999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="4">
+        <v>13.0991</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="4">
+        <v>10.986700000000001</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I7" s="4">
+        <v>7.0099999999999996E-2</v>
+      </c>
+      <c r="J7" s="1"/>
+      <c r="K7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L7" s="11">
+        <v>2.0999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="5">
+        <v>79.9405</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="8">
+        <v>70.589100000000002</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" s="5">
+        <v>0.14929999999999999</v>
+      </c>
+      <c r="J8" s="1"/>
+      <c r="K8" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="L8" s="13">
+        <v>5.4999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="J10" s="1"/>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="4">
-        <v>18.311</v>
-      </c>
-      <c r="E6" t="s">
-        <v>10</v>
-      </c>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B11" s="6"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
     </row>
-    <row r="7" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="6">
-        <v>36.558999999999997</v>
-      </c>
-      <c r="E7" t="s">
-        <v>11</v>
-      </c>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B12" s="6"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B13" s="14"/>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B14" s="14"/>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B15" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
